--- a/人员列表.xlsx
+++ b/人员列表.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sxl\github\dragon-luck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxl\github\dragon-luck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC61E35E-5EF9-4F1E-AA66-20E627812A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD58E94-D788-408D-ADA8-BD88B0233986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB56BA3A-2AF1-4F0A-AE3A-8B1A591AD418}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB56BA3A-2AF1-4F0A-AE3A-8B1A591AD418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,45 +26,638 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="204">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈秀英</t>
+  </si>
+  <si>
+    <t>刘芳</t>
+  </si>
+  <si>
+    <t>李建国</t>
+  </si>
+  <si>
+    <t>张伟</t>
+  </si>
+  <si>
+    <t>刘伟</t>
+  </si>
+  <si>
+    <t>刘建国</t>
+  </si>
+  <si>
+    <t>王秀英</t>
+  </si>
+  <si>
+    <t>李芳</t>
+  </si>
+  <si>
+    <t>王建国</t>
+  </si>
+  <si>
+    <t>刘秀英</t>
+  </si>
+  <si>
+    <t>王强</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>陈伟</t>
+  </si>
+  <si>
+    <t>李伟</t>
+  </si>
+  <si>
+    <t>陈强</t>
+  </si>
+  <si>
+    <t>李秀英</t>
+  </si>
+  <si>
+    <t>张秀英</t>
+  </si>
+  <si>
+    <t>张芳</t>
+  </si>
+  <si>
+    <t>张强</t>
+  </si>
+  <si>
+    <t>李强</t>
+  </si>
+  <si>
+    <t>刘强</t>
+  </si>
+  <si>
+    <t>张建国</t>
+  </si>
+  <si>
+    <t>陈建国</t>
+  </si>
+  <si>
+    <t>陈芳</t>
+  </si>
+  <si>
+    <t>王芳</t>
+  </si>
+  <si>
+    <t>19422613096</t>
+  </si>
+  <si>
+    <t>15967286268</t>
+  </si>
+  <si>
+    <t>11713630999</t>
+  </si>
+  <si>
+    <t>18046986559</t>
+  </si>
+  <si>
+    <t>18299029259</t>
+  </si>
+  <si>
+    <t>17342462497</t>
+  </si>
+  <si>
+    <t>14498195065</t>
+  </si>
+  <si>
+    <t>14691282055</t>
+  </si>
+  <si>
+    <t>14092883109</t>
+  </si>
+  <si>
+    <t>19305701658</t>
+  </si>
+  <si>
+    <t>13120576041</t>
+  </si>
+  <si>
+    <t>11493206597</t>
+  </si>
+  <si>
+    <t>建国强</t>
+  </si>
+  <si>
+    <t>11655768713</t>
+  </si>
+  <si>
+    <t>强秀英</t>
+  </si>
+  <si>
+    <t>18880724259</t>
+  </si>
+  <si>
+    <t>强伟</t>
+  </si>
+  <si>
+    <t>19153727887</t>
+  </si>
+  <si>
+    <t>14301889277</t>
+  </si>
+  <si>
+    <t>11374213521</t>
+  </si>
+  <si>
+    <t>16455567936</t>
+  </si>
+  <si>
+    <t>17326722394</t>
+  </si>
+  <si>
+    <t>秀英芳</t>
+  </si>
+  <si>
+    <t>19287597383</t>
+  </si>
+  <si>
+    <t>王张</t>
+  </si>
+  <si>
+    <t>19932626855</t>
+  </si>
+  <si>
+    <t>伟张</t>
+  </si>
+  <si>
+    <t>19897903875</t>
+  </si>
+  <si>
+    <t>芳王</t>
+  </si>
+  <si>
+    <t>10483523800</t>
+  </si>
+  <si>
+    <t>14847874401</t>
+  </si>
+  <si>
+    <t>19998458832</t>
+  </si>
+  <si>
+    <t>秀英李</t>
+  </si>
+  <si>
+    <t>11349124428</t>
+  </si>
+  <si>
+    <t>强李</t>
+  </si>
+  <si>
+    <t>19472804436</t>
+  </si>
+  <si>
+    <t>13816128252</t>
+  </si>
+  <si>
+    <t>16715369705</t>
+  </si>
+  <si>
+    <t>18390668201</t>
+  </si>
+  <si>
+    <t>刘李</t>
+  </si>
+  <si>
+    <t>10106014013</t>
+  </si>
+  <si>
+    <t>李王</t>
+  </si>
+  <si>
+    <t>17143980490</t>
+  </si>
+  <si>
+    <t>19836931162</t>
+  </si>
+  <si>
+    <t>芳强</t>
+  </si>
+  <si>
+    <t>19224972894</t>
+  </si>
+  <si>
+    <t>15029904627</t>
+  </si>
+  <si>
+    <t>伟强</t>
+  </si>
+  <si>
+    <t>13790070722</t>
+  </si>
+  <si>
+    <t>王李</t>
+  </si>
+  <si>
+    <t>14890304673</t>
+  </si>
+  <si>
+    <t>芳建国</t>
+  </si>
+  <si>
+    <t>16132292432</t>
+  </si>
+  <si>
+    <t>14027452359</t>
+  </si>
+  <si>
+    <t>陈刘</t>
+  </si>
+  <si>
+    <t>11267841868</t>
+  </si>
+  <si>
+    <t>18433064381</t>
+  </si>
+  <si>
+    <t>张王</t>
+  </si>
+  <si>
+    <t>13808635796</t>
+  </si>
+  <si>
+    <t>12646672944</t>
+  </si>
+  <si>
+    <t>建国李</t>
+  </si>
+  <si>
+    <t>15041327128</t>
+  </si>
+  <si>
+    <t>芳秀英</t>
+  </si>
+  <si>
+    <t>10483337412</t>
+  </si>
+  <si>
+    <t>李张</t>
+  </si>
+  <si>
+    <t>17328303838</t>
+  </si>
+  <si>
+    <t>建国张</t>
+  </si>
+  <si>
+    <t>12027251334</t>
+  </si>
+  <si>
+    <t>张陈</t>
+  </si>
+  <si>
+    <t>18090488756</t>
+  </si>
+  <si>
+    <t>强张</t>
+  </si>
+  <si>
+    <t>12781116812</t>
+  </si>
+  <si>
+    <t>伟王</t>
+  </si>
+  <si>
+    <t>19511572976</t>
+  </si>
+  <si>
+    <t>芳伟</t>
+  </si>
+  <si>
+    <t>18412575872</t>
+  </si>
+  <si>
+    <t>秀英王</t>
+  </si>
+  <si>
+    <t>12848905594</t>
+  </si>
+  <si>
+    <t>伟陈</t>
+  </si>
+  <si>
+    <t>10862785253</t>
+  </si>
+  <si>
+    <t>15108087067</t>
+  </si>
+  <si>
+    <t>秀英伟</t>
+  </si>
+  <si>
+    <t>10566215108</t>
+  </si>
+  <si>
+    <t>强陈</t>
+  </si>
+  <si>
+    <t>14551602411</t>
+  </si>
+  <si>
+    <t>强王</t>
+  </si>
+  <si>
+    <t>17370259476</t>
+  </si>
+  <si>
+    <t>秀英建国</t>
+  </si>
+  <si>
+    <t>16433845722</t>
+  </si>
+  <si>
+    <t>李陈</t>
+  </si>
+  <si>
+    <t>11063615964</t>
+  </si>
+  <si>
+    <t>芳张</t>
+  </si>
+  <si>
+    <t>15488354329</t>
+  </si>
+  <si>
+    <t>18044218051</t>
+  </si>
+  <si>
+    <t>建国芳</t>
+  </si>
+  <si>
+    <t>10773087697</t>
+  </si>
+  <si>
+    <t>伟芳</t>
+  </si>
+  <si>
+    <t>16016982775</t>
+  </si>
+  <si>
+    <t>王刘</t>
+  </si>
+  <si>
+    <t>12463065035</t>
+  </si>
+  <si>
+    <t>11716926487</t>
+  </si>
+  <si>
+    <t>强芳</t>
+  </si>
+  <si>
+    <t>10402196178</t>
+  </si>
+  <si>
+    <t>建国伟</t>
+  </si>
+  <si>
+    <t>14798729495</t>
+  </si>
+  <si>
+    <t>刘陈</t>
+  </si>
+  <si>
+    <t>12352550322</t>
+  </si>
+  <si>
+    <t>李刘</t>
+  </si>
+  <si>
+    <t>11749706065</t>
+  </si>
+  <si>
+    <t>18807879944</t>
+  </si>
+  <si>
+    <t>12375190347</t>
+  </si>
+  <si>
+    <t>建国刘</t>
+  </si>
+  <si>
+    <t>11074808126</t>
+  </si>
+  <si>
+    <t>19067720430</t>
+  </si>
+  <si>
+    <t>伟李</t>
+  </si>
+  <si>
+    <t>10646925008</t>
+  </si>
+  <si>
+    <t>16555485980</t>
+  </si>
+  <si>
+    <t>伟建国</t>
+  </si>
+  <si>
+    <t>18487808253</t>
+  </si>
+  <si>
+    <t>强刘</t>
+  </si>
+  <si>
+    <t>17396987100</t>
+  </si>
+  <si>
+    <t>芳陈</t>
+  </si>
+  <si>
+    <t>13910203467</t>
+  </si>
+  <si>
+    <t>伟秀英</t>
+  </si>
+  <si>
+    <t>18684134979</t>
+  </si>
+  <si>
+    <t>秀英张</t>
+  </si>
+  <si>
+    <t>10466116345</t>
+  </si>
+  <si>
+    <t>15822681647</t>
+  </si>
+  <si>
+    <t>14084614029</t>
+  </si>
+  <si>
+    <t>陈张</t>
+  </si>
+  <si>
+    <t>16700739727</t>
+  </si>
+  <si>
+    <t>张刘</t>
+  </si>
+  <si>
+    <t>10417245029</t>
+  </si>
+  <si>
+    <t>建国秀英</t>
+  </si>
+  <si>
+    <t>15625486542</t>
+  </si>
+  <si>
+    <t>陈李</t>
+  </si>
+  <si>
+    <t>12507682666</t>
+  </si>
+  <si>
+    <t>刘王</t>
+  </si>
+  <si>
+    <t>15591271033</t>
+  </si>
+  <si>
+    <t>张李</t>
+  </si>
+  <si>
+    <t>16986218782</t>
+  </si>
+  <si>
+    <t>秀英强</t>
+  </si>
+  <si>
+    <t>12222717977</t>
+  </si>
+  <si>
+    <t>强建国</t>
+  </si>
+  <si>
+    <t>17073296429</t>
+  </si>
+  <si>
+    <t>秀英陈</t>
+  </si>
+  <si>
+    <t>13109263396</t>
+  </si>
+  <si>
+    <t>陈王</t>
+  </si>
+  <si>
+    <t>18786805231</t>
+  </si>
+  <si>
+    <t>12726967018</t>
+  </si>
+  <si>
+    <t>秀英刘</t>
+  </si>
+  <si>
+    <t>11619830797</t>
+  </si>
+  <si>
+    <t>芳刘</t>
+  </si>
+  <si>
+    <t>13810276425</t>
+  </si>
+  <si>
+    <t>建国陈</t>
+  </si>
+  <si>
+    <t>10136225541</t>
+  </si>
+  <si>
+    <t>刘张</t>
+  </si>
+  <si>
+    <t>17600837390</t>
+  </si>
+  <si>
+    <t>王陈</t>
+  </si>
+  <si>
+    <t>19452344751</t>
+  </si>
+  <si>
+    <t>建国王</t>
+  </si>
+  <si>
+    <t>10873189317</t>
+  </si>
+  <si>
+    <t>芳李</t>
+  </si>
+  <si>
+    <t>14989173403</t>
+  </si>
+  <si>
+    <t>伟刘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iwatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东卡400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[150,133,189]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,10 +667,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,19 +705,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{9D166BD0-2E73-44D5-8DC3-EA7C9349EFE6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,52 +1053,1029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06903CF3-EE69-4E17-BBD7-39DE97F91180}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F9DEF-3E2D-4747-8EC8-E2DC053FE11D}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>